--- a/women_diaries/Diary 6 (Igor).xlsx
+++ b/women_diaries/Diary 6 (Igor).xlsx
@@ -91,10 +91,13 @@
     <t>I opened my browser and typed in the address bar the site: http://www.libreoffice.org/. I need to contribute with the LibreOffice but I don’t know how. I see that there is a “Community” link. I clicked on it, because the information about how to contribute could be there.</t>
   </si>
   <si>
-    <t>X</t>
+    <t>x</t>
   </si>
   <si>
     <t>From this link, there is a menu with 12 links or more. Among them, “Developers” and “Wiki”, which are the ones I clicked on. I open the “Developers” page. I see a link that looks interesting, which says “Learn about the code and development”.</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve"> I click on it and it opens the development wiki. I feel excited, because I found information about how to contribute in a short time.</t>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>First, the topic teaches me how to create a local commit using Git. It teaches in detail how to do this. After that, it gives me three options of what to do when the local commit is done. It’s all quite interesting and really relevant, but not in the current moment. Right now, I really want to find the code. I am willing to find the code and I’m not going to sleep until I found something relevant about it.</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>The next Wiki link is a video tutorial that shows a demonstration of how to build the LibreOffice. Actually, I’m very excited again! It seems that I’ll find some useful information about how to get the code, which is my goal at the moment.</t>
@@ -513,7 +513,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -635,18 +635,18 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="R9" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -656,12 +656,12 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="S10" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -677,10 +677,10 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -691,7 +691,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L12" s="11"/>
     </row>
@@ -14619,8 +14619,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -14716,7 +14718,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -14744,7 +14746,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -14760,7 +14762,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -14776,7 +14778,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -14792,7 +14794,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -14808,7 +14810,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -14824,7 +14826,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -14838,18 +14840,18 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="R9" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -14859,12 +14861,12 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="S10" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -14880,7 +14882,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -14894,13 +14896,13 @@
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
       <c r="R12" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -14975,13 +14977,13 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -14994,7 +14996,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -15005,13 +15007,13 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="Q18" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -15021,7 +15023,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -15032,13 +15034,13 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="U19" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -15048,7 +15050,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -15059,13 +15061,13 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="U20" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -15084,7 +15086,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="V21" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -15103,7 +15105,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="V22" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -15122,7 +15124,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="U23" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -15189,10 +15191,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="Q27" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -15200,7 +15202,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -15213,7 +15215,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="V28" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -15328,7 +15330,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="V35" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -15347,7 +15349,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="P36" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -15446,7 +15448,7 @@
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="S42" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -15465,10 +15467,10 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="R43" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -15476,7 +15478,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -15553,7 +15555,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="S48" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -15577,7 +15579,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -15597,7 +15599,7 @@
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -15608,7 +15610,7 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="U51" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -29123,7 +29125,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -29139,7 +29141,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -29155,7 +29157,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -29171,7 +29173,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -29187,7 +29189,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -29203,7 +29205,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -29219,7 +29221,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -29235,7 +29237,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -29251,7 +29253,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -29352,7 +29354,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -29363,13 +29365,13 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="Q18" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -29379,7 +29381,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -29390,13 +29392,13 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="U19" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -29406,7 +29408,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -29417,13 +29419,13 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="U20" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -29474,7 +29476,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="U23" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
